--- a/biology/Botanique/Jardins_de_Maizicourt/Jardins_de_Maizicourt.xlsx
+++ b/biology/Botanique/Jardins_de_Maizicourt/Jardins_de_Maizicourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de Maizicourt sont un parc privé situé sur le territoire de la commune de Maizicourt dans le département de la Somme. D'une superficie de 10 hectares, ils sont ouverts au public une partie de l’année.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins de Maizicourt entourent un château en brique et pierre construit dans la première moitié du XVIIIe siècle pour le compte de Louis-François de La Houssoye (1705-1746), vicomte de Maizicourt et seigneur de Neuvillette, page de la Grande Ecurie du roi de France.
 En 1989, Catherine et André Guévenoux rachetèrent la propriété et redessinèrent les jardins laissés à l’abandon.
-Les jardins de Maizicourt ont obtenu le label Jardin remarquable[1].
+Les jardins de Maizicourt ont obtenu le label Jardin remarquable.
 En 2003, le Prix national « Jardin et Vieilles Maisons françaises » leur a été attribué.
 En 2006, ils ont obtenu le Prix national des « Jardins de l’année ».
 </t>
@@ -549,11 +563,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le château
-C’est un petit château de brique et pierre construit sur un seul niveau de U. Il est coiffé d’un toit d’ardoise à larges pans. Sur le fronton de la façade ont été sculptées au XIXe siècle des armoiries des familles Mellier et Acquet de Férolles. La cour d’honneur est fermée par une grille en ferronnerie. Sur la façade arrière, plus sobre, un cadran solaire a été scellé.
+          <t>Le château</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un petit château de brique et pierre construit sur un seul niveau de U. Il est coiffé d’un toit d’ardoise à larges pans. Sur le fronton de la façade ont été sculptées au XIXe siècle des armoiries des familles Mellier et Acquet de Férolles. La cour d’honneur est fermée par une grille en ferronnerie. Sur la façade arrière, plus sobre, un cadran solaire a été scellé.
 Le château est accompagné de granges, d’écuries, d’un mur d’enceinte. L’église du village se trouve à proximité immédiate du château.
-Les jardins
-Réaménagé totalement à partir de 1989, la caractéristique principale des jardins est la présence de nombreuses topiaires. Les jardins sont parsemés de fabriques reconstruites ou construites en matériaux traditionnels (brique, bois, torchis...) à la fin du XXe siècle : pigeonnier, poulailler, écurie, maison du jardinier... Une vingtaine de jardins se succèdent sur une dizaine d'hectares :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réaménagé totalement à partir de 1989, la caractéristique principale des jardins est la présence de nombreuses topiaires. Les jardins sont parsemés de fabriques reconstruites ou construites en matériaux traditionnels (brique, bois, torchis...) à la fin du XXe siècle : pigeonnier, poulailler, écurie, maison du jardinier... Une vingtaine de jardins se succèdent sur une dizaine d'hectares :
 À l'entrée des jardins se trouvent l'orangerie et un jardin japonais planté de cerisiers pleureurs, de bambous, de conifères.
 Le jardin jaune est planté de cerisiers Shirotae, hydrangeas, rosiers anglais, géraniums botaniques etc.
 la cour d’honneur, plantée  de vivaces, de rosiers anciens et hydrangeas, ifs...
@@ -582,8 +636,43 @@
 			Dans l'« ancienne » mare.
 			Buis en topiaires.
 			Ifs sculptés.
-Arbres remarquables
-collection de bouleaux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">collection de bouleaux
 châtaigniers
 collection d’érables
 hêtres
@@ -593,48 +682,153 @@
 platanes
 Prunus, Malus…
 Certains de ces arbres sont centenaires.
-Arbres d’alignement
-charme,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arbres d’alignement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>charme,
 marronnier,
 peuplier,
-tilleul…
-Arbres fruitiers
-cerisiers,
+tilleul…</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arbres fruitiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>cerisiers,
 cognassiers,
 poiriers,
 pommiers,
-pruniers…
-Décoration
-Statue, fabrique de jardin, pavillon, kiosque, fontaine...
+pruniers…</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Maizicourt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Statue, fabrique de jardin, pavillon, kiosque, fontaine...
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jardins_de_Maizicourt</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardins_de_Maizicourt</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix national « Jardin et Vieilles Maisons françaises » (2003)
 Prix national des « Jardins de l’année » (2006)</t>
